--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_GiaThanh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="32" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -482,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -634,9 +634,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -700,6 +697,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,31 +733,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,21 +1042,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="66" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1078,46 +1075,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="52"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1135,14 +1132,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="53"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1159,99 +1156,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="69" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,10 +1264,10 @@
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="70">
         <v>867857039905224</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="38" t="s">
         <v>65</v>
       </c>
@@ -1281,7 +1278,7 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="58" t="s">
         <v>68</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -1304,14 +1301,14 @@
         <v>76</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="73" t="s">
+      <c r="T6" s="69"/>
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="70"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1338,7 +1335,7 @@
         <v>72</v>
       </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L7" s="40" t="s">
@@ -1361,12 +1358,12 @@
         <v>24</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="74"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="70"/>
+      <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1381,7 +1378,7 @@
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="67">
         <v>867857039897348</v>
       </c>
       <c r="F8" s="38"/>
@@ -1395,7 +1392,7 @@
       <c r="J8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L8" s="40" t="s">
@@ -1418,12 +1415,12 @@
         <v>79</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="74"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="70"/>
+      <c r="W8" s="69"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1475,12 +1472,12 @@
         <v>79</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="70"/>
+      <c r="W9" s="69"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1532,19 +1529,19 @@
         <v>81</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="74"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="70"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
@@ -1561,25 +1558,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="74"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="70"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="55"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1590,21 +1587,21 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="73" t="s">
+      <c r="T12" s="69"/>
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="70"/>
+      <c r="W12" s="69"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
@@ -1621,19 +1618,19 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="74"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="70"/>
+      <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
@@ -1650,25 +1647,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="74"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="70"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="55"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1680,24 +1677,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="70"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="60"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="55"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1709,18 +1706,18 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="70"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
@@ -1738,22 +1735,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="70"/>
+      <c r="U17" s="69"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="70"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="55"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1773,14 +1770,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="55"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1792,7 +1789,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="69" t="s">
+      <c r="U19" s="68" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1804,14 +1801,14 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="55"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1836,14 +1833,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="55"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1868,14 +1865,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="55"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1900,14 +1897,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="55"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1927,14 +1924,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="55"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1954,14 +1951,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="55"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1973,7 +1970,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="69" t="s">
+      <c r="U25" s="68" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -1985,14 +1982,14 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="55"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2017,14 +2014,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="55"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2049,14 +2046,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="55"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2081,14 +2078,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="55"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2113,14 +2110,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="55"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2145,14 +2142,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="55"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2177,14 +2174,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="55"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2209,14 +2206,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="55"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2241,14 +2238,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="55"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2273,14 +2270,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="55"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2305,14 +2302,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="55"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2337,14 +2334,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="55"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2369,14 +2366,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="55"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2396,14 +2393,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="55"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2423,14 +2420,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="55"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2455,14 +2452,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="55"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2487,14 +2484,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="55"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2514,14 +2511,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="55"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2541,14 +2538,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="55"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2577,14 +2574,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="55"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2616,14 +2613,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="55"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2655,14 +2652,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="55"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2694,14 +2691,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="55"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2736,14 +2733,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="55"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2764,14 +2761,14 @@
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="45"/>
       <c r="E50" s="31"/>
       <c r="F50" s="45"/>
       <c r="G50" s="45"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="56"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2792,14 +2789,14 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="55"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2820,14 +2817,14 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="57"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2848,14 +2845,14 @@
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="57"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2876,14 +2873,14 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="57"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2904,14 +2901,14 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="57"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2940,6 +2937,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2951,13 +2955,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2968,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3001,43 +2998,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3082,58 +3079,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3158,49 +3155,77 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44382</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44383</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="70">
+        <v>867857039905224</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3212,26 +3237,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44382</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44383</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183034621487</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3241,26 +3292,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44382</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44383</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="67">
+        <v>867857039897348</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>79</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3270,26 +3349,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44382</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44383</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>867857039892869</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="I9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>79</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3299,26 +3406,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44382</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44383</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>867857039892448</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3347,7 +3482,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3376,7 +3511,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3407,7 +3542,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3436,7 +3571,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3465,7 +3600,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3494,7 +3629,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3613,7 +3748,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3677,7 +3812,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3954,7 +4089,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4018,7 +4153,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -4050,7 +4185,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -4082,7 +4217,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4146,7 +4281,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4725,13 +4860,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4743,6 +4871,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
